--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Роман\PycharmProjects\Spammaker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2869D07-361E-4E9A-8CA0-7A80CBD6E6DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="7065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="12315" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,17 +22,23 @@
     <t>Почты</t>
   </si>
   <si>
-    <t>Роман</t>
+    <t>Имя</t>
   </si>
   <si>
-    <t>krash-r13@yandex.ru</t>
+    <t>altnightfall@yandex.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,20 +53,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF999999"/>
-      <name val="Georgia"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,8 +210,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -103,12 +420,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -119,11 +675,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -133,18 +689,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -402,22 +1001,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="27.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -485,6 +1084,10 @@
       <c r="B14" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="altnightfall@yandex.ru"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12315" windowHeight="12345"/>
+    <workbookView windowWidth="12315" windowHeight="4365"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Имена</t>
+    <t>Email</t>
   </si>
   <si>
-    <t>Почты</t>
-  </si>
-  <si>
-    <t>Имя</t>
+    <t>Name</t>
   </si>
   <si>
     <t>altnightfall@yandex.ru</t>
+  </si>
+  <si>
+    <t>Юрий</t>
   </si>
 </sst>
 </file>
@@ -33,15 +33,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -61,69 +69,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,37 +176,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -183,15 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,19 +220,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,43 +274,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,115 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,36 +430,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,8 +462,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +483,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,171 +502,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1007,85 +1018,94 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="27.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="altnightfall@yandex.ru"/>
+    <hyperlink ref="A2" r:id="rId1" display="altnightfall@yandex.ru"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
